--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2956.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2956.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191363203920855</v>
+        <v>0.2739937603473663</v>
       </c>
       <c r="B1">
-        <v>2.810838679045203</v>
+        <v>0.7964653968811035</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.658106565475464</v>
       </c>
       <c r="D1">
-        <v>2.134790605283299</v>
+        <v>3.303115606307983</v>
       </c>
       <c r="E1">
-        <v>1.209953364299475</v>
+        <v>0.8817182183265686</v>
       </c>
     </row>
   </sheetData>
